--- a/files/HOTEND_EXTRUDER/NOVA/BOM_HextrudORT_Extruder_NOVA.xlsx
+++ b/files/HOTEND_EXTRUDER/NOVA/BOM_HextrudORT_Extruder_NOVA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\Extruder_HotEnd\NOVA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\HOTEND_EXTRUDER\NOVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E8AC3C-1FF1-4372-8444-7187504312F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE1D494-17BA-471D-89E5-32474F984653}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -273,9 +273,6 @@
   </si>
   <si>
     <t>1*</t>
-  </si>
-  <si>
-    <t>OPTION BlTouchSupport for STDHT MGN9 &amp; MGN12 Carriage</t>
   </si>
   <si>
     <r>
@@ -331,6 +328,15 @@
 - Support interface: yes
 - Full fan at first support interfacing layer</t>
     </r>
+  </si>
+  <si>
+    <t>* OPTION BlTouchSupport for STDHT MGN9 &amp; MGN12 Carriage</t>
+  </si>
+  <si>
+    <t>* OPTION BlTouchSupport for HD12 Carriage</t>
+  </si>
+  <si>
+    <t>* OPTION BlTouchSupport for HD9 Carriage</t>
   </si>
 </sst>
 </file>
@@ -631,6 +637,13 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -663,13 +676,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -1395,7 +1401,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{494CDCE7-8EB1-486A-8076-EC1E59242533}" name="Table1" displayName="Table1" ref="A1:K18" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{494CDCE7-8EB1-486A-8076-EC1E59242533}" name="Table1" displayName="Table1" ref="A1:K18" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
   <autoFilter ref="A1:K18" xr:uid="{4DBD3307-5F20-47E0-9C75-3A8478E4F27D}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{8DD10BD1-F8F8-4CF0-8D4C-7F4FC801B3C7}" name="SubAssy"/>
@@ -1738,23 +1744,23 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" customWidth="1"/>
+    <col min="5" max="5" width="37.54296875" customWidth="1"/>
+    <col min="6" max="6" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="9" max="9" width="76" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" customWidth="1"/>
-    <col min="11" max="11" width="42.140625" customWidth="1"/>
+    <col min="10" max="10" width="33.453125" customWidth="1"/>
+    <col min="11" max="11" width="42.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1789,7 +1795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>45</v>
       </c>
@@ -1818,7 +1824,7 @@
       <c r="J2" s="12"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>45</v>
       </c>
@@ -1847,7 +1853,7 @@
       <c r="J3" s="12"/>
       <c r="K3" s="17"/>
     </row>
-    <row r="4" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>45</v>
       </c>
@@ -1876,7 +1882,7 @@
       <c r="J4" s="12"/>
       <c r="K4" s="17"/>
     </row>
-    <row r="5" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>45</v>
       </c>
@@ -1905,7 +1911,7 @@
       <c r="J5" s="12"/>
       <c r="K5" s="17"/>
     </row>
-    <row r="6" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>45</v>
       </c>
@@ -1934,7 +1940,7 @@
       <c r="J6" s="12"/>
       <c r="K6" s="17"/>
     </row>
-    <row r="7" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>45</v>
       </c>
@@ -1963,7 +1969,7 @@
       <c r="J7" s="12"/>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>45</v>
       </c>
@@ -1992,7 +1998,7 @@
       <c r="J8" s="12"/>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>45</v>
       </c>
@@ -2021,7 +2027,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>45</v>
       </c>
@@ -2050,7 +2056,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>45</v>
       </c>
@@ -2079,7 +2085,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>45</v>
       </c>
@@ -2104,7 +2110,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>45</v>
       </c>
@@ -2128,12 +2134,12 @@
         <v>55</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J13" s="18"/>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>45</v>
       </c>
@@ -2159,12 +2165,12 @@
         <v>55</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J14" s="18"/>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>45</v>
       </c>
@@ -2188,12 +2194,12 @@
         <v>55</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J15" s="18"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>45</v>
       </c>
@@ -2215,12 +2221,12 @@
         <v>1</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>45</v>
       </c>
@@ -2242,12 +2248,12 @@
         <v>1</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="17"/>
     </row>
-    <row r="18" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>45</v>
       </c>
@@ -2269,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="17"/>
@@ -2278,7 +2284,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <webPublishItems count="1">
-    <webPublishItem id="16836" divId="BOM_HextrudORT_Extruder_NOVA_16836" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\Extruder_HotEnd\NOVA\BOM_HextrudORT_Extruder_NOVA.htm" autoRepublish="1"/>
+    <webPublishItem id="16836" divId="BOM_HextrudORT_Extruder_NOVA_16836" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\HOTEND_EXTRUDER\NOVA\BOM_HextrudORT_Extruder_NOVA.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/files/HOTEND_EXTRUDER/NOVA/BOM_HextrudORT_Extruder_NOVA.xlsx
+++ b/files/HOTEND_EXTRUDER/NOVA/BOM_HextrudORT_Extruder_NOVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\HOTEND_EXTRUDER\NOVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE1D494-17BA-471D-89E5-32474F984653}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BD86B9-A0C6-4E60-B2FC-D3594C1BFB3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>OPTION A: Bearing_MR95_7804K105</t>
-  </si>
-  <si>
-    <t>Bearing 5X9X2.5</t>
   </si>
   <si>
     <r>
@@ -337,6 +334,9 @@
   </si>
   <si>
     <t>* OPTION BlTouchSupport for HD9 Carriage</t>
+  </si>
+  <si>
+    <t>Bearing 5X9X3</t>
   </si>
 </sst>
 </file>
@@ -1743,24 +1743,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" customWidth="1"/>
-    <col min="5" max="5" width="37.54296875" customWidth="1"/>
-    <col min="6" max="6" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="9" max="9" width="76" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.453125" customWidth="1"/>
-    <col min="11" max="11" width="42.1796875" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" customWidth="1"/>
+    <col min="11" max="11" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1795,9 +1795,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>20</v>
@@ -1824,15 +1824,15 @@
       <c r="J2" s="12"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13" t="s">
@@ -1853,9 +1853,9 @@
       <c r="J3" s="12"/>
       <c r="K3" s="17"/>
     </row>
-    <row r="4" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>20</v>
@@ -1882,9 +1882,9 @@
       <c r="J4" s="12"/>
       <c r="K4" s="17"/>
     </row>
-    <row r="5" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>20</v>
@@ -1911,9 +1911,9 @@
       <c r="J5" s="12"/>
       <c r="K5" s="17"/>
     </row>
-    <row r="6" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>20</v>
@@ -1940,9 +1940,9 @@
       <c r="J6" s="12"/>
       <c r="K6" s="17"/>
     </row>
-    <row r="7" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>20</v>
@@ -1969,9 +1969,9 @@
       <c r="J7" s="12"/>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>20</v>
@@ -1984,52 +1984,52 @@
         <v>33</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>21</v>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>12</v>
@@ -2051,14 +2051,14 @@
         <v>1</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>20</v>
@@ -2068,10 +2068,10 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>20</v>
@@ -2080,14 +2080,14 @@
         <v>1</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>20</v>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="10" t="s">
@@ -2110,19 +2110,19 @@
       <c r="J12" s="12"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>11</v>
@@ -2131,29 +2131,29 @@
         <v>21</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J13" s="18"/>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>11</v>
@@ -2162,27 +2162,27 @@
         <v>21</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J14" s="18"/>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>11</v>
@@ -2191,17 +2191,17 @@
         <v>21</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J15" s="18"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>21</v>
@@ -2221,14 +2221,14 @@
         <v>1</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>21</v>
@@ -2248,14 +2248,14 @@
         <v>1</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="17"/>
     </row>
-    <row r="18" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -2275,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="17"/>

--- a/files/HOTEND_EXTRUDER/NOVA/BOM_HextrudORT_Extruder_NOVA.xlsx
+++ b/files/HOTEND_EXTRUDER/NOVA/BOM_HextrudORT_Extruder_NOVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\HOTEND_EXTRUDER\NOVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BD86B9-A0C6-4E60-B2FC-D3594C1BFB3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041BBE67-28E8-41C2-8671-3448823AF0AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="77">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -337,6 +337,54 @@
   </si>
   <si>
     <t>Bearing 5X9X3</t>
+  </si>
+  <si>
+    <t>HARDWARE</t>
+  </si>
+  <si>
+    <t>M2.5X6_CapScrew_92290A056</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>M3_Nut_94150A325</t>
+  </si>
+  <si>
+    <t>Nut, Hex - M3</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>M3X25_CapScrew_92290A124</t>
+  </si>
+  <si>
+    <t>Screw, Cap - M3X25mm</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>M3X20_CapScrew_92290A122</t>
+  </si>
+  <si>
+    <t>Screw, Cap - M3X20mm</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>M3X8_CapScrew_92290A113</t>
+  </si>
+  <si>
+    <t>Screw, Cap - M3X8mm</t>
+  </si>
+  <si>
+    <t>Screw, Cap - M2.5X6mm</t>
   </si>
 </sst>
 </file>
@@ -697,13 +745,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>98425</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>155575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1235075</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1292225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -741,13 +789,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>98425</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>155575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1235075</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>1292225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -785,13 +833,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>98425</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>155575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1235075</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>1292225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1313,13 +1361,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1357,13 +1405,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>92073</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1231898</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>1339850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1397,12 +1445,232 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1298575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20" descr="thumbnail_11.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC1ABE7D-224B-4962-B823-2B786C8FC610}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3267075" y="19310350"/>
+          <a:ext cx="1101725" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1298575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23" descr="thumbnail_12.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C96A98-6971-402C-8688-208019506562}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3267075" y="20751800"/>
+          <a:ext cx="1101725" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1298575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31" descr="thumbnail_13.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BFCB61A-816F-4B7F-8F70-108042B30E38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3267075" y="22193250"/>
+          <a:ext cx="1101725" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1298575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33" descr="thumbnail_10.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D36549-C1DB-4830-86B1-2736A774FA95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3267075" y="17868900"/>
+          <a:ext cx="1101725" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1254125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35" descr="thumbnail_15.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00C4BA2D-FC9A-4C42-8E82-DD2A5BCAD586}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3032125" y="19392900"/>
+          <a:ext cx="1076325" cy="1069975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{494CDCE7-8EB1-486A-8076-EC1E59242533}" name="Table1" displayName="Table1" ref="A1:K18" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
-  <autoFilter ref="A1:K18" xr:uid="{4DBD3307-5F20-47E0-9C75-3A8478E4F27D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{494CDCE7-8EB1-486A-8076-EC1E59242533}" name="Table1" displayName="Table1" ref="A1:K23" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
+  <autoFilter ref="A1:K23" xr:uid="{4DBD3307-5F20-47E0-9C75-3A8478E4F27D}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{8DD10BD1-F8F8-4CF0-8D4C-7F4FC801B3C7}" name="SubAssy"/>
     <tableColumn id="2" xr3:uid="{48F8A639-6252-46BC-8E09-3A18B47C9DCC}" name="Category"/>
@@ -1741,10 +2009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2115,27 +2383,25 @@
         <v>44</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="13" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>57</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H13" s="15">
+        <v>2</v>
+      </c>
+      <c r="I13" s="16"/>
       <c r="J13" s="18"/>
       <c r="K13" s="17"/>
     </row>
@@ -2144,30 +2410,26 @@
         <v>44</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>53</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C14" s="11">
+        <v>13</v>
+      </c>
+      <c r="D14" s="12"/>
       <c r="E14" s="13" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="H14" s="15">
+        <v>2</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="12"/>
       <c r="K14" s="17"/>
     </row>
     <row r="15" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2175,27 +2437,25 @@
         <v>44</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="13" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>58</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H15" s="15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="16"/>
       <c r="J15" s="18"/>
       <c r="K15" s="17"/>
     </row>
@@ -2204,26 +2464,26 @@
         <v>44</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="11">
-        <v>11</v>
+        <v>61</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="13" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="10"/>
+        <v>72</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="H16" s="15">
         <v>1</v>
       </c>
-      <c r="I16" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" s="12"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="18"/>
       <c r="K16" s="17"/>
     </row>
     <row r="17" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2231,26 +2491,26 @@
         <v>44</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="11">
-        <v>12</v>
+        <v>61</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="13" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="10"/>
+        <v>75</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="H17" s="15">
         <v>1</v>
       </c>
-      <c r="I17" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="12"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="18"/>
       <c r="K17" s="17"/>
     </row>
     <row r="18" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2260,25 +2520,168 @@
       <c r="B18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="11">
-        <v>13</v>
+      <c r="C18" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="13" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="15">
+      <c r="G18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="17"/>
+    </row>
+    <row r="19" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" s="18"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="18"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="11">
+        <v>11</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="15">
         <v>1</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I21" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="17"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="11">
+        <v>12</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="15">
+        <v>1</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="11">
+        <v>13</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="15">
+        <v>1</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/HOTEND_EXTRUDER/NOVA/BOM_HextrudORT_Extruder_NOVA.xlsx
+++ b/files/HOTEND_EXTRUDER/NOVA/BOM_HextrudORT_Extruder_NOVA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\HOTEND_EXTRUDER\NOVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041BBE67-28E8-41C2-8671-3448823AF0AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B091F5-0A1B-4079-8CB4-04B5677A2AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From Fusion 360" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="79">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -98,23 +98,6 @@
   </si>
   <si>
     <t>Bondtech_Shaft_assembly v1</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">From BMG Extruder
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*NOTE* Short side of the shaft might need to be filed down to avoid grinding against stepper motor.</t>
-    </r>
   </si>
   <si>
     <t>Bondtech_Thumbscrew_assembly v1</t>
@@ -386,12 +369,40 @@
   <si>
     <t>Screw, Cap - M2.5X6mm</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From BMG Extruder
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*NOTE*
+1 - Some BMG clone have a 4mm thick gear, they will not fit.
+  Verified sources are: 
+  a) Original BMG from BondTech
+  b) https://s.click.aliexpress.com/e/_Ao9yaZ
+2 -  Short side of the shaft might need to be filed down to avoid grinding against stepper motor.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://s.click.aliexpress.com/e/_Ao9yaZ</t>
+  </si>
+  <si>
+    <t>Triangle Lab</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,6 +508,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -620,10 +639,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -679,8 +699,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -2011,24 +2035,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K9" sqref="J2:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" customWidth="1"/>
+    <col min="5" max="5" width="37.54296875" customWidth="1"/>
+    <col min="6" max="6" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="9" max="9" width="76" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" customWidth="1"/>
-    <col min="11" max="11" width="42.140625" customWidth="1"/>
+    <col min="10" max="10" width="33.453125" customWidth="1"/>
+    <col min="11" max="11" width="42.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2063,9 +2087,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>20</v>
@@ -2089,18 +2113,22 @@
       <c r="I2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="17"/>
+      <c r="J2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13" t="s">
@@ -2118,12 +2146,16 @@
       <c r="I3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="17"/>
+      <c r="J3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>20</v>
@@ -2145,14 +2177,18 @@
         <v>1</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="17"/>
+        <v>76</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>20</v>
@@ -2162,7 +2198,7 @@
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>23</v>
@@ -2176,12 +2212,16 @@
       <c r="I5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="17"/>
+      <c r="J5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>20</v>
@@ -2191,7 +2231,7 @@
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>6</v>
@@ -2205,12 +2245,16 @@
       <c r="I6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="17"/>
+      <c r="J6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>20</v>
@@ -2220,10 +2264,10 @@
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>30</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>20</v>
@@ -2232,72 +2276,80 @@
         <v>1</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="17"/>
+        <v>30</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>37</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="17"/>
+        <v>37</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>21</v>
@@ -2307,7 +2359,7 @@
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>12</v>
@@ -2319,14 +2371,14 @@
         <v>1</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>20</v>
@@ -2336,10 +2388,10 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>20</v>
@@ -2348,14 +2400,14 @@
         <v>1</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>20</v>
@@ -2365,7 +2417,7 @@
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="10" t="s">
@@ -2378,25 +2430,25 @@
       <c r="J12" s="12"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>66</v>
-      </c>
       <c r="G13" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13" s="15">
         <v>2</v>
@@ -2405,22 +2457,22 @@
       <c r="J13" s="18"/>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="11">
         <v>13</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>20</v>
@@ -2432,25 +2484,25 @@
       <c r="J14" s="12"/>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>69</v>
-      </c>
       <c r="G15" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H15" s="15">
         <v>1</v>
@@ -2459,25 +2511,25 @@
       <c r="J15" s="18"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>72</v>
-      </c>
       <c r="G16" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H16" s="15">
         <v>1</v>
@@ -2486,25 +2538,25 @@
       <c r="J16" s="18"/>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>75</v>
-      </c>
       <c r="G17" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H17" s="15">
         <v>1</v>
@@ -2513,19 +2565,19 @@
       <c r="J17" s="18"/>
       <c r="K17" s="17"/>
     </row>
-    <row r="18" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>11</v>
@@ -2534,29 +2586,29 @@
         <v>21</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" s="18"/>
       <c r="K18" s="17"/>
     </row>
-    <row r="19" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>11</v>
@@ -2565,27 +2617,27 @@
         <v>21</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J19" s="18"/>
       <c r="K19" s="17"/>
     </row>
-    <row r="20" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>11</v>
@@ -2594,17 +2646,17 @@
         <v>21</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J20" s="18"/>
       <c r="K20" s="17"/>
     </row>
-    <row r="21" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>21</v>
@@ -2624,14 +2676,14 @@
         <v>1</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J21" s="12"/>
       <c r="K21" s="17"/>
     </row>
-    <row r="22" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>21</v>
@@ -2651,14 +2703,14 @@
         <v>1</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="17"/>
     </row>
-    <row r="23" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -2678,19 +2730,26 @@
         <v>1</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="17"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K4" r:id="rId1" xr:uid="{71C7A0ED-4671-44A4-8011-B385C7D3994D}"/>
+    <hyperlink ref="K2:K3" r:id="rId2" display="https://s.click.aliexpress.com/e/_Ao9yaZ" xr:uid="{CC3AF728-6387-4F4D-84C6-5BB37D56F739}"/>
+    <hyperlink ref="K5" r:id="rId3" xr:uid="{0E048F1D-07CC-4A0F-B28C-DAFE20C729BA}"/>
+    <hyperlink ref="K6:K7" r:id="rId4" display="https://s.click.aliexpress.com/e/_Ao9yaZ" xr:uid="{2E83F2E6-F1CA-4E32-9640-EA2CC77B7395}"/>
+    <hyperlink ref="K9" r:id="rId5" xr:uid="{1D9959AE-DA85-4DEF-82F7-81C2EE3AB562}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId6"/>
   <webPublishItems count="1">
     <webPublishItem id="16836" divId="BOM_HextrudORT_Extruder_NOVA_16836" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\HOTEND_EXTRUDER\NOVA\BOM_HextrudORT_Extruder_NOVA.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/files/HOTEND_EXTRUDER/NOVA/BOM_HextrudORT_Extruder_NOVA.xlsx
+++ b/files/HOTEND_EXTRUDER/NOVA/BOM_HextrudORT_Extruder_NOVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\HOTEND_EXTRUDER\NOVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B091F5-0A1B-4079-8CB4-04B5677A2AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6F35F3-4386-481E-A1FA-608AAA522029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From Fusion 360" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="85">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -37,12 +37,6 @@
     <t>Vendor URL</t>
   </si>
   <si>
-    <t>Comes with BMG</t>
-  </si>
-  <si>
-    <t>Make From BMG arm pin</t>
-  </si>
-  <si>
     <t>HextrudORT_TENSION_ARM</t>
   </si>
   <si>
@@ -61,9 +55,6 @@
     <t>Comes with BMG clones</t>
   </si>
   <si>
-    <t>SetScrew_M3X2_92605A097</t>
-  </si>
-  <si>
     <t>SubAssy</t>
   </si>
   <si>
@@ -88,18 +79,9 @@
     <t>MAKE</t>
   </si>
   <si>
-    <t>Bondetech mini gears v1</t>
-  </si>
-  <si>
-    <t>From BMG extruder</t>
-  </si>
-  <si>
     <t>From BMG Extruder</t>
   </si>
   <si>
-    <t>Bondtech_Shaft_assembly v1</t>
-  </si>
-  <si>
     <t>Bondtech_Thumbscrew_assembly v1</t>
   </si>
   <si>
@@ -109,75 +91,10 @@
     <t>PTFE Tube Retainer</t>
   </si>
   <si>
-    <t>Retainer, PTFE Tube 4mm</t>
-  </si>
-  <si>
-    <t>Is included with certain BMG clones.
-If not, need to purchase separately</t>
-  </si>
-  <si>
     <t>6a</t>
   </si>
   <si>
-    <t>OPTION A: Bearing_MR95_7804K105</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OPTION A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-These are BIGGER bearings than the ones used in the BMG.
- To be used with Back Plate and cover marked with "BB"</t>
-    </r>
-  </si>
-  <si>
     <t>6b</t>
-  </si>
-  <si>
-    <t>OPTION B: Bearing_MR85 (from BMG)</t>
-  </si>
-  <si>
-    <t>Bearing 5X8X2.5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OPTION B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Use MR85 5x8x2.5 bearings from BMG</t>
-    </r>
   </si>
   <si>
     <t>PTFE_Guide</t>
@@ -195,37 +112,7 @@
     <t>From 3DPassion.com</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BE AWARE,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> if using the 100W heater cartridge available for NOVA, Duet might trigger errors during PID tune due to too much overshoot (default 15C).
-This can be resolved by Inserting an M570 H1* T25 in your config file.
-* is your heater number.
-Klipper seems to be handling this power without any issue.
-</t>
-    </r>
-  </si>
-  <si>
     <t>HextrudORT_HotEnd_Nova</t>
-  </si>
-  <si>
-    <t>1a</t>
   </si>
   <si>
     <t>bltouch</t>
@@ -370,8 +257,156 @@
     <t>Screw, Cap - M2.5X6mm</t>
   </si>
   <si>
+    <t>https://www.bondtech.se/product/shaft-assembly/</t>
+  </si>
+  <si>
+    <t>https://www.bondtech.se/product/thumbscrew-assembly/</t>
+  </si>
+  <si>
+    <t>https://www.bondtech.se/product/shafts/</t>
+  </si>
+  <si>
+    <t>From BMG Extruder 3 X 20</t>
+  </si>
+  <si>
+    <t>OPTION A: Bearing_MR85 (from BMG)</t>
+  </si>
+  <si>
+    <t>OPTION B: Bearing_MR95_7804K105</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">From BMG Extruder
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPTION A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Use MR85 5x8x2.5 bearings from BMG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPTION B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+These are BIGGER bearings than the ones used in the BMG.
+ To be used with Back Plate and cover marked with "BB"</t>
+    </r>
+  </si>
+  <si>
+    <t>Bondtech</t>
+  </si>
+  <si>
+    <t>Bondtech_Shaft_assembly</t>
+  </si>
+  <si>
+    <t>Replacement Shaft assembly for our Bondtech Mini Geared (BMG), SingleDirect and DualDirect extruders.
+It includes the set screw for primary 1.75/5.0 drive gear.</t>
+  </si>
+  <si>
+    <t>From BMG extruder or sold seperately</t>
+  </si>
+  <si>
+    <t>Make From BMG arm pin
+3 X 20mm or sold seperately</t>
+  </si>
+  <si>
+    <t>Bearing 5X8X2.5 From BMG or sold seperately</t>
+  </si>
+  <si>
+    <t>Retainer, PTFE Tube 4mm
+From BMG or sold seperately</t>
+  </si>
+  <si>
+    <t>Bondtech BMG parts</t>
+  </si>
+  <si>
+    <t>https://www.bondtech.se/product/push-fit-collar/</t>
+  </si>
+  <si>
+    <t>https://www.bondtech.se/product/drivegear-kits/</t>
+  </si>
+  <si>
+    <t>Bondetech mini gears 1.75/5.0</t>
+  </si>
+  <si>
+    <t>Gear set for filament size 1.75 mm, primary gear with inner diameter 5 mm, secondary gear with two needle bearings,M3x2 setscrew and one 3 x 20 mm shaft.</t>
+  </si>
+  <si>
+    <t>NOVA HextrudORT</t>
+  </si>
+  <si>
+    <t>https://3dpassion.com/nova</t>
+  </si>
+  <si>
+    <t>3D Passion</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE AWARE,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if using the 100W heater cartridge available for NOVA, Duet might trigger errors during PID tune due to too much overshoot (default 15C).
+This can be resolved by Inserting an M570 H1* T25 in your config file.
+* is your heater number.
+Klipper seems to be handling this power without any issue.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">HevORT Discount: Get 2 free nozzles (0.33mm and 1mm) when purchasing a Nova HotEnd kit.  https://forums.hevort.com/viewtopic.php?f=18&amp;t=504
+Promo code: (Apply code at Check out) 
 </t>
     </r>
     <r>
@@ -383,26 +418,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>*NOTE*
-1 - Some BMG clone have a 4mm thick gear, they will not fit.
-  Verified sources are: 
-  a) Original BMG from BondTech
-  b) https://s.click.aliexpress.com/e/_Ao9yaZ
-2 -  Short side of the shaft might need to be filed down to avoid grinding against stepper motor.</t>
+      <t>HEVORT</t>
     </r>
-  </si>
-  <si>
-    <t>https://s.click.aliexpress.com/e/_Ao9yaZ</t>
-  </si>
-  <si>
-    <t>Triangle Lab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,8 +544,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,6 +570,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6EE22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,7 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -702,6 +747,27 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -752,6 +818,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD6EE22"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -769,13 +840,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>98425</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>155575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1235075</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>1292225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -813,13 +884,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>98425</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>155575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1235075</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>1292225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -857,13 +928,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>98425</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>155575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1235075</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>1292225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -900,102 +971,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>536576</xdr:colOff>
+      <xdr:colOff>193675</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>555626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>946151</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>958851</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16" descr="thumbnail_16.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3635376" y="2416176"/>
-          <a:ext cx="409575" cy="403225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>3</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1254125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17" descr="thumbnail_3.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5264B3-4630-46F6-B569-81C76894859A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3032125" y="2044700"/>
-          <a:ext cx="1076325" cy="1069975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1012,7 +995,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1056,7 +1039,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1077,13 +1060,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1100,7 +1083,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1144,7 +1127,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1165,57 +1148,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1254125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24" descr="thumbnail_19.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EC9C93C-0378-4CC2-9A5E-C67D0075A297}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3032125" y="6369050"/>
-          <a:ext cx="1076325" cy="1069975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1270000</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1320800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1232,7 +1171,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1253,13 +1192,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>244475</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>215144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>1203325</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1276,7 +1215,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1297,13 +1236,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1292225</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1247775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1320,7 +1259,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1341,13 +1280,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1364,7 +1303,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1385,13 +1324,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1408,7 +1347,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1429,13 +1368,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>92073</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1231898</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1339850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1452,7 +1391,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1473,13 +1412,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>168275</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>1298575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1496,7 +1435,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1517,13 +1456,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>168275</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>1298575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1540,7 +1479,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1561,13 +1500,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>168275</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>1298575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1584,7 +1523,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1605,13 +1544,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>168275</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1298575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1628,7 +1567,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1649,13 +1588,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1672,7 +1611,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1689,12 +1628,100 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1463675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1352813</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32" descr="thumbnail_1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE691C7-15E9-4DE5-9B5C-F250EDCA3190}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3390900" y="1987550"/>
+          <a:ext cx="1285875" cy="1225813"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>127001</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1327055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34" descr="thumbnail_1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{332F7F43-0258-4739-9A52-09510F71F918}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3340101" y="6324600"/>
+          <a:ext cx="1225549" cy="1168305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{494CDCE7-8EB1-486A-8076-EC1E59242533}" name="Table1" displayName="Table1" ref="A1:K23" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
-  <autoFilter ref="A1:K23" xr:uid="{4DBD3307-5F20-47E0-9C75-3A8478E4F27D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{494CDCE7-8EB1-486A-8076-EC1E59242533}" name="Table1" displayName="Table1" ref="A1:K24" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
+  <autoFilter ref="A1:K24" xr:uid="{4DBD3307-5F20-47E0-9C75-3A8478E4F27D}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{8DD10BD1-F8F8-4CF0-8D4C-7F4FC801B3C7}" name="SubAssy"/>
     <tableColumn id="2" xr3:uid="{48F8A639-6252-46BC-8E09-3A18B47C9DCC}" name="Category"/>
@@ -2033,10 +2060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K9" sqref="J2:K9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2054,13 +2081,13 @@
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -2069,16 +2096,16 @@
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>3</v>
@@ -2087,199 +2114,181 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="15">
-        <v>1</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>77</v>
-      </c>
+    <row r="2" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H3" s="15">
         <v>1</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="J3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="11">
         <v>2</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H4" s="15">
         <v>1</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="11">
         <v>3</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H5" s="15">
         <v>1</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" s="11">
         <v>4</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H6" s="15">
         <v>1</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" s="11">
         <v>5</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H7" s="15">
         <v>1</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K7" s="19" t="s">
         <v>77</v>
@@ -2287,249 +2296,241 @@
     </row>
     <row r="8" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="17"/>
+        <v>67</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>77</v>
-      </c>
+    <row r="9" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="25"/>
     </row>
-    <row r="10" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="11">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="15">
-        <v>1</v>
-      </c>
       <c r="I10" s="16" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="13" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H11" s="15">
         <v>1</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C12" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="G12" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H12" s="15">
         <v>1</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="17"/>
+      <c r="I12" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>63</v>
+        <v>17</v>
+      </c>
+      <c r="C13" s="11">
+        <v>9</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>65</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F13" s="14"/>
       <c r="G13" s="10" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="H13" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" s="16"/>
-      <c r="J13" s="18"/>
+      <c r="J13" s="12"/>
       <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="11">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="13" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="H14" s="15">
         <v>2</v>
       </c>
       <c r="I14" s="16"/>
-      <c r="J14" s="12"/>
+      <c r="J14" s="18"/>
       <c r="K14" s="17"/>
     </row>
     <row r="15" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>66</v>
+        <v>45</v>
+      </c>
+      <c r="C15" s="11">
+        <v>13</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="13" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="H15" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="16"/>
-      <c r="J15" s="18"/>
+      <c r="J15" s="12"/>
       <c r="K15" s="17"/>
     </row>
     <row r="16" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="13" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="H16" s="15">
         <v>1</v>
@@ -2540,23 +2541,23 @@
     </row>
     <row r="17" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="13" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="H17" s="15">
         <v>1</v>
@@ -2567,189 +2568,214 @@
     </row>
     <row r="18" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="13" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H18" s="15">
+        <v>1</v>
+      </c>
+      <c r="I18" s="16"/>
       <c r="J18" s="18"/>
       <c r="K18" s="17"/>
     </row>
     <row r="19" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D19" s="12"/>
       <c r="E19" s="13" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="J19" s="18"/>
       <c r="K19" s="17"/>
     </row>
     <row r="20" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>57</v>
       </c>
       <c r="J20" s="18"/>
       <c r="K20" s="17"/>
     </row>
     <row r="21" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="11">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="13" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="15">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="12"/>
+        <v>42</v>
+      </c>
+      <c r="J21" s="18"/>
       <c r="K21" s="17"/>
     </row>
     <row r="22" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C22" s="11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="15">
         <v>1</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="17"/>
     </row>
     <row r="23" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C23" s="11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="15">
         <v>1</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="17"/>
     </row>
+    <row r="24" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="11">
+        <v>13</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="15">
+        <v>1</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="17"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" xr:uid="{71C7A0ED-4671-44A4-8011-B385C7D3994D}"/>
-    <hyperlink ref="K2:K3" r:id="rId2" display="https://s.click.aliexpress.com/e/_Ao9yaZ" xr:uid="{CC3AF728-6387-4F4D-84C6-5BB37D56F739}"/>
-    <hyperlink ref="K5" r:id="rId3" xr:uid="{0E048F1D-07CC-4A0F-B28C-DAFE20C729BA}"/>
-    <hyperlink ref="K6:K7" r:id="rId4" display="https://s.click.aliexpress.com/e/_Ao9yaZ" xr:uid="{2E83F2E6-F1CA-4E32-9640-EA2CC77B7395}"/>
-    <hyperlink ref="K9" r:id="rId5" xr:uid="{1D9959AE-DA85-4DEF-82F7-81C2EE3AB562}"/>
+    <hyperlink ref="K4" r:id="rId1" xr:uid="{38BD02A3-ABE0-45A7-BFDC-F55FFADB9BCF}"/>
+    <hyperlink ref="K12" r:id="rId2" xr:uid="{998F1B89-AB61-4AFB-BA0F-908285B548AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+  <drawing r:id="rId4"/>
   <webPublishItems count="1">
     <webPublishItem id="16836" divId="BOM_HextrudORT_Extruder_NOVA_16836" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\HOTEND_EXTRUDER\NOVA\BOM_HextrudORT_Extruder_NOVA.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/files/HOTEND_EXTRUDER/NOVA/BOM_HextrudORT_Extruder_NOVA.xlsx
+++ b/files/HOTEND_EXTRUDER/NOVA/BOM_HextrudORT_Extruder_NOVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\HOTEND_EXTRUDER\NOVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6F35F3-4386-481E-A1FA-608AAA522029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD529F6-8236-498C-9A88-2A0DEAE3B151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="87">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -273,30 +273,6 @@
   </si>
   <si>
     <t>OPTION B: Bearing_MR95_7804K105</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OPTION A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Use MR85 5x8x2.5 bearings from BMG</t>
-    </r>
   </si>
   <si>
     <r>
@@ -420,6 +396,37 @@
       </rPr>
       <t>HEVORT</t>
     </r>
+  </si>
+  <si>
+    <t>2*</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPTION A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Use MR85 5x8x2.5 bearings from BMG
+*Qty1 bearing will be used in the carriage BOM.  Qty 1 required in this assembly + 1 in carriage = 2 for the printer</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.bondtech.se/product/ballbearing-5x8x2-5/</t>
   </si>
 </sst>
 </file>
@@ -2062,8 +2069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2116,7 +2123,7 @@
     </row>
     <row r="2" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -2141,10 +2148,10 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>17</v>
@@ -2153,13 +2160,13 @@
         <v>1</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2174,10 +2181,10 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>17</v>
@@ -2186,10 +2193,10 @@
         <v>1</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K4" s="19" t="s">
         <v>61</v>
@@ -2210,7 +2217,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>17</v>
@@ -2222,7 +2229,7 @@
         <v>19</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K5" s="19" t="s">
         <v>62</v>
@@ -2243,7 +2250,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>17</v>
@@ -2255,7 +2262,7 @@
         <v>64</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>63</v>
@@ -2276,7 +2283,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>17</v>
@@ -2288,10 +2295,10 @@
         <v>19</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2309,27 +2316,27 @@
         <v>65</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -2363,10 +2370,10 @@
         <v>17</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="17"/>
@@ -2424,13 +2431,13 @@
         <v>1</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2767,15 +2774,20 @@
   <hyperlinks>
     <hyperlink ref="K4" r:id="rId1" xr:uid="{38BD02A3-ABE0-45A7-BFDC-F55FFADB9BCF}"/>
     <hyperlink ref="K12" r:id="rId2" xr:uid="{998F1B89-AB61-4AFB-BA0F-908285B548AB}"/>
+    <hyperlink ref="K3" r:id="rId3" xr:uid="{4356675F-D9A6-4E99-8ABA-A42239CB57AB}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{8DFA36D6-61FB-4EE6-8626-E685DCB7A9FC}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{7DC4CA94-668A-441B-9C8A-21FBA76104FF}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{F7646FB5-0A55-4B2F-9FE2-D2827C9146E3}"/>
+    <hyperlink ref="K8" r:id="rId7" xr:uid="{16600236-DB59-4FC6-BDA1-107F78CB8EB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId8"/>
+  <drawing r:id="rId9"/>
   <webPublishItems count="1">
     <webPublishItem id="16836" divId="BOM_HextrudORT_Extruder_NOVA_16836" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\HOTEND_EXTRUDER\NOVA\BOM_HextrudORT_Extruder_NOVA.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/files/HOTEND_EXTRUDER/NOVA/BOM_HextrudORT_Extruder_NOVA.xlsx
+++ b/files/HOTEND_EXTRUDER/NOVA/BOM_HextrudORT_Extruder_NOVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\HOTEND_EXTRUDER\NOVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD529F6-8236-498C-9A88-2A0DEAE3B151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E414164-094E-4C46-83AA-17EF5A9D11C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From Fusion 360" sheetId="1" r:id="rId1"/>

--- a/files/HOTEND_EXTRUDER/NOVA/BOM_HextrudORT_Extruder_NOVA.xlsx
+++ b/files/HOTEND_EXTRUDER/NOVA/BOM_HextrudORT_Extruder_NOVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\HOTEND_EXTRUDER\NOVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E414164-094E-4C46-83AA-17EF5A9D11C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498D173E-C6B8-47B9-9C05-68C21F7FB1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1154,15 +1154,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>193675</xdr:colOff>
+      <xdr:colOff>177800</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:rowOff>476250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1270000</xdr:colOff>
+      <xdr:colOff>1247775</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>1320800</xdr:rowOff>
+      <xdr:rowOff>1619250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1185,8 +1185,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3292475" y="13411200"/>
-          <a:ext cx="1076325" cy="1136650"/>
+          <a:off x="3397250" y="12763500"/>
+          <a:ext cx="1069975" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2069,8 +2069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/files/HOTEND_EXTRUDER/NOVA/BOM_HextrudORT_Extruder_NOVA.xlsx
+++ b/files/HOTEND_EXTRUDER/NOVA/BOM_HextrudORT_Extruder_NOVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\HOTEND_EXTRUDER\NOVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498D173E-C6B8-47B9-9C05-68C21F7FB1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD0D19E-B41B-429F-8415-4DC86D0AE6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -846,15 +846,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>98425</xdr:colOff>
+      <xdr:colOff>237672</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
+      <xdr:rowOff>270784</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1235075</xdr:colOff>
+      <xdr:colOff>1183822</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>1292225</xdr:rowOff>
+      <xdr:rowOff>1210584</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -877,8 +877,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="708025" y="6111875"/>
-          <a:ext cx="1136650" cy="1136650"/>
+          <a:off x="3163208" y="27607534"/>
+          <a:ext cx="946150" cy="939800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -890,15 +890,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>98425</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
+      <xdr:rowOff>243568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1235075</xdr:colOff>
+      <xdr:colOff>1153432</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>1292225</xdr:rowOff>
+      <xdr:rowOff>1196975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -921,8 +921,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="708025" y="7553325"/>
-          <a:ext cx="1136650" cy="1136650"/>
+          <a:off x="3125561" y="29022675"/>
+          <a:ext cx="953407" cy="953407"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1242,15 +1242,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>291192</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>249012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1292225</xdr:colOff>
+      <xdr:colOff>1194252</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1247775</xdr:rowOff>
+      <xdr:rowOff>1160296</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1273,8 +1273,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3251200" y="11944350"/>
-          <a:ext cx="1139825" cy="1139825"/>
+          <a:off x="3216728" y="11189155"/>
+          <a:ext cx="903060" cy="911284"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1374,15 +1374,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>92073</xdr:colOff>
+      <xdr:colOff>364216</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:rowOff>325210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1231898</xdr:colOff>
+      <xdr:colOff>1170214</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>1339850</xdr:rowOff>
+      <xdr:rowOff>1230920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1405,8 +1405,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3190873" y="19205575"/>
-          <a:ext cx="1139825" cy="1279525"/>
+          <a:off x="3289752" y="26219603"/>
+          <a:ext cx="805998" cy="905710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1682,15 +1682,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>127001</xdr:colOff>
+      <xdr:colOff>283937</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>308430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:colOff>1265464</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1327055</xdr:rowOff>
+      <xdr:rowOff>1236793</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1713,8 +1713,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3340101" y="6324600"/>
-          <a:ext cx="1225549" cy="1168305"/>
+          <a:off x="3209473" y="6717394"/>
+          <a:ext cx="981527" cy="928363"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1728,7 +1728,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{494CDCE7-8EB1-486A-8076-EC1E59242533}" name="Table1" displayName="Table1" ref="A1:K24" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
-  <autoFilter ref="A1:K24" xr:uid="{4DBD3307-5F20-47E0-9C75-3A8478E4F27D}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{8DD10BD1-F8F8-4CF0-8D4C-7F4FC801B3C7}" name="SubAssy"/>
     <tableColumn id="2" xr3:uid="{48F8A639-6252-46BC-8E09-3A18B47C9DCC}" name="Category"/>
@@ -2069,21 +2068,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" customWidth="1"/>
     <col min="2" max="2" width="11.54296875" customWidth="1"/>
     <col min="4" max="4" width="21.54296875" customWidth="1"/>
     <col min="5" max="5" width="37.54296875" customWidth="1"/>
     <col min="6" max="6" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="9" max="9" width="76" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.453125" customWidth="1"/>
-    <col min="11" max="11" width="42.1796875" customWidth="1"/>
+    <col min="10" max="10" width="17.08984375" customWidth="1"/>
+    <col min="11" max="11" width="36.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">

--- a/files/HOTEND_EXTRUDER/NOVA/BOM_HextrudORT_Extruder_NOVA.xlsx
+++ b/files/HOTEND_EXTRUDER/NOVA/BOM_HextrudORT_Extruder_NOVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\HOTEND_EXTRUDER\NOVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD0D19E-B41B-429F-8415-4DC86D0AE6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A207BB2-A76B-4901-BE39-1C8E6F1CE417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From Fusion 360" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="80">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -257,15 +257,6 @@
     <t>Screw, Cap - M2.5X6mm</t>
   </si>
   <si>
-    <t>https://www.bondtech.se/product/shaft-assembly/</t>
-  </si>
-  <si>
-    <t>https://www.bondtech.se/product/thumbscrew-assembly/</t>
-  </si>
-  <si>
-    <t>https://www.bondtech.se/product/shafts/</t>
-  </si>
-  <si>
     <t>From BMG Extruder 3 X 20</t>
   </si>
   <si>
@@ -310,27 +301,7 @@
 It includes the set screw for primary 1.75/5.0 drive gear.</t>
   </si>
   <si>
-    <t>From BMG extruder or sold seperately</t>
-  </si>
-  <si>
-    <t>Make From BMG arm pin
-3 X 20mm or sold seperately</t>
-  </si>
-  <si>
-    <t>Bearing 5X8X2.5 From BMG or sold seperately</t>
-  </si>
-  <si>
-    <t>Retainer, PTFE Tube 4mm
-From BMG or sold seperately</t>
-  </si>
-  <si>
     <t>Bondtech BMG parts</t>
-  </si>
-  <si>
-    <t>https://www.bondtech.se/product/push-fit-collar/</t>
-  </si>
-  <si>
-    <t>https://www.bondtech.se/product/drivegear-kits/</t>
   </si>
   <si>
     <t>Bondetech mini gears 1.75/5.0</t>
@@ -426,7 +397,13 @@
     </r>
   </si>
   <si>
-    <t>https://www.bondtech.se/product/ballbearing-5x8x2-5/</t>
+    <t>https://www.bondtech.se/product/bmg-internals-set-for-hextrudort/</t>
+  </si>
+  <si>
+    <t>Included in BMG Internals Set for HextrudORT</t>
+  </si>
+  <si>
+    <t>(BUY) KIT</t>
   </si>
 </sst>
 </file>
@@ -2068,8 +2045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2122,7 +2099,7 @@
     </row>
     <row r="2" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -2147,22 +2124,22 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>71</v>
-      </c>
       <c r="G3" s="10" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="H3" s="15">
         <v>1</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K3" s="19" t="s">
         <v>77</v>
@@ -2180,25 +2157,25 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="H4" s="15">
         <v>1</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2216,10 +2193,10 @@
         <v>20</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="H5" s="15">
         <v>1</v>
@@ -2228,10 +2205,10 @@
         <v>19</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2249,22 +2226,22 @@
         <v>21</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="H6" s="15">
         <v>1</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2282,10 +2259,10 @@
         <v>22</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="H7" s="15">
         <v>1</v>
@@ -2294,10 +2271,10 @@
         <v>19</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2312,30 +2289,30 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>68</v>
-      </c>
       <c r="K8" s="19" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -2360,7 +2337,7 @@
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>44</v>
@@ -2369,10 +2346,10 @@
         <v>17</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="17"/>
@@ -2430,13 +2407,13 @@
         <v>1</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2771,13 +2748,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" xr:uid="{38BD02A3-ABE0-45A7-BFDC-F55FFADB9BCF}"/>
-    <hyperlink ref="K12" r:id="rId2" xr:uid="{998F1B89-AB61-4AFB-BA0F-908285B548AB}"/>
-    <hyperlink ref="K3" r:id="rId3" xr:uid="{4356675F-D9A6-4E99-8ABA-A42239CB57AB}"/>
-    <hyperlink ref="K5" r:id="rId4" xr:uid="{8DFA36D6-61FB-4EE6-8626-E685DCB7A9FC}"/>
-    <hyperlink ref="K6" r:id="rId5" xr:uid="{7DC4CA94-668A-441B-9C8A-21FBA76104FF}"/>
-    <hyperlink ref="K7" r:id="rId6" xr:uid="{F7646FB5-0A55-4B2F-9FE2-D2827C9146E3}"/>
-    <hyperlink ref="K8" r:id="rId7" xr:uid="{16600236-DB59-4FC6-BDA1-107F78CB8EB7}"/>
+    <hyperlink ref="K12" r:id="rId1" xr:uid="{998F1B89-AB61-4AFB-BA0F-908285B548AB}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{65AEE2AA-ADBE-4C87-A7DB-E461AEC6693C}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{9BAD5410-408F-42F0-8392-4593EBF536B7}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{BEA295B4-E882-43CF-A278-FD71B10926D9}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{752F26FD-AB5D-4480-BD9C-B911548B287E}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{1AF7C12B-D4B5-4AF8-BB92-C01AEFF0161B}"/>
+    <hyperlink ref="K8" r:id="rId7" xr:uid="{E971F18C-80E2-4F3F-A91A-BFAC371D0CAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId8"/>
